--- a/target/test-classes/testdata/master.xlsx
+++ b/target/test-classes/testdata/master.xlsx
@@ -2784,7 +2784,7 @@
     <t>D:\workspace\bizligo-Automation\src\test\resources\testImages\Files\ChromeImage6.jpg</t>
   </si>
   <si>
-    <t>D:\workspace\bizligo-Automation\src\test\resources\testImages\Files\ChromePDF1.pdf</t>
+    <t>\src\test\resources\testImages\Files\ChromePDF1.pdf</t>
   </si>
 </sst>
 </file>
@@ -3275,7 +3275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5085,8 +5085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH831" workbookViewId="0">
-      <selection activeCell="AZ833" sqref="AZ833"/>
+    <sheetView tabSelected="1" topLeftCell="A883" workbookViewId="0">
+      <selection activeCell="H890" sqref="H890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12419,7 +12419,7 @@
         <v>396</v>
       </c>
       <c r="H885" t="s">
-        <v>407</v>
+        <v>818</v>
       </c>
       <c r="I885" t="s">
         <v>405</v>
@@ -12482,7 +12482,7 @@
         <v>396</v>
       </c>
       <c r="H890" t="s">
-        <v>407</v>
+        <v>818</v>
       </c>
       <c r="I890" t="s">
         <v>405</v>

--- a/target/test-classes/testdata/master.xlsx
+++ b/target/test-classes/testdata/master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4175" uniqueCount="820">
   <si>
     <t>TestCases</t>
   </si>
@@ -2785,6 +2785,9 @@
   </si>
   <si>
     <t>\src\test\resources\testImages\Files\ChromePDF1.pdf</t>
+  </si>
+  <si>
+    <t>promoCode3</t>
   </si>
 </sst>
 </file>
@@ -5085,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A883" workbookViewId="0">
-      <selection activeCell="H890" sqref="H890"/>
+    <sheetView tabSelected="1" topLeftCell="H966" workbookViewId="0">
+      <selection activeCell="O968" sqref="O968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14134,7 +14137,7 @@
       </c>
       <c r="B976"/>
     </row>
-    <row r="977" spans="1:23">
+    <row r="977" spans="1:24">
       <c r="A977" t="s">
         <v>1</v>
       </c>
@@ -14169,7 +14172,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="978" spans="1:23">
+    <row r="978" spans="1:24">
       <c r="A978" t="s">
         <v>2</v>
       </c>
@@ -14204,19 +14207,19 @@
         <v>707</v>
       </c>
     </row>
-    <row r="979" spans="1:23">
+    <row r="979" spans="1:24">
       <c r="B979"/>
     </row>
-    <row r="980" spans="1:23">
+    <row r="980" spans="1:24">
       <c r="B980"/>
     </row>
-    <row r="981" spans="1:23">
+    <row r="981" spans="1:24">
       <c r="A981" t="s">
         <v>689</v>
       </c>
       <c r="B981"/>
     </row>
-    <row r="982" spans="1:23">
+    <row r="982" spans="1:24">
       <c r="A982" t="s">
         <v>1</v>
       </c>
@@ -14236,7 +14239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="983" spans="1:23">
+    <row r="983" spans="1:24">
       <c r="A983" t="s">
         <v>2</v>
       </c>
@@ -14256,19 +14259,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="984" spans="1:23">
+    <row r="984" spans="1:24">
       <c r="B984"/>
     </row>
-    <row r="985" spans="1:23">
+    <row r="985" spans="1:24">
       <c r="B985"/>
     </row>
-    <row r="986" spans="1:23">
+    <row r="986" spans="1:24">
       <c r="A986" t="s">
         <v>690</v>
       </c>
       <c r="B986"/>
     </row>
-    <row r="987" spans="1:23">
+    <row r="987" spans="1:24">
       <c r="A987" t="s">
         <v>1</v>
       </c>
@@ -14294,52 +14297,55 @@
         <v>740</v>
       </c>
       <c r="I987" t="s">
+        <v>819</v>
+      </c>
+      <c r="J987" t="s">
         <v>723</v>
       </c>
-      <c r="J987" t="s">
+      <c r="K987" t="s">
         <v>724</v>
       </c>
-      <c r="K987" t="s">
+      <c r="L987" t="s">
         <v>725</v>
       </c>
-      <c r="L987" t="s">
+      <c r="M987" t="s">
         <v>747</v>
       </c>
-      <c r="M987" t="s">
+      <c r="N987" t="s">
         <v>748</v>
       </c>
-      <c r="N987" t="s">
+      <c r="O987" t="s">
         <v>726</v>
       </c>
-      <c r="O987" t="s">
+      <c r="P987" t="s">
         <v>727</v>
       </c>
-      <c r="P987" t="s">
+      <c r="Q987" t="s">
         <v>728</v>
       </c>
-      <c r="Q987" t="s">
+      <c r="R987" t="s">
         <v>729</v>
       </c>
-      <c r="R987" t="s">
+      <c r="S987" t="s">
         <v>730</v>
       </c>
-      <c r="S987" t="s">
+      <c r="T987" t="s">
         <v>731</v>
       </c>
-      <c r="T987" t="s">
+      <c r="U987" t="s">
         <v>732</v>
       </c>
-      <c r="U987" t="s">
+      <c r="V987" t="s">
         <v>733</v>
       </c>
-      <c r="V987" t="s">
+      <c r="W987" t="s">
         <v>734</v>
       </c>
-      <c r="W987" t="s">
+      <c r="X987" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="988" spans="1:23">
+    <row r="988" spans="1:24">
       <c r="A988" t="s">
         <v>2</v>
       </c>
@@ -14365,25 +14371,25 @@
         <v>749</v>
       </c>
       <c r="I988" t="s">
+        <v>775</v>
+      </c>
+      <c r="J988" t="s">
         <v>737</v>
       </c>
-      <c r="J988" t="s">
+      <c r="K988" t="s">
         <v>394</v>
-      </c>
-      <c r="K988" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="L988" s="3" t="s">
         <v>738</v>
       </c>
       <c r="M988" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="N988" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="N988" s="3" t="s">
+      <c r="O988" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="O988" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="P988" s="3" t="s">
         <v>574</v>
@@ -14409,14 +14415,17 @@
       <c r="W988" s="3" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="989" spans="1:23">
+      <c r="X988" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="989" spans="1:24">
       <c r="B989"/>
     </row>
-    <row r="990" spans="1:23">
+    <row r="990" spans="1:24">
       <c r="B990"/>
     </row>
-    <row r="992" spans="1:23">
+    <row r="992" spans="1:24">
       <c r="B992"/>
       <c r="J992" s="3"/>
       <c r="K992" s="3"/>

--- a/target/test-classes/testdata/master.xlsx
+++ b/target/test-classes/testdata/master.xlsx
@@ -2637,18 +2637,12 @@
     <t>Imgverification</t>
   </si>
   <si>
-    <t>\src\test\resources\testImages\verifyCommunityAdImage.PNG</t>
-  </si>
-  <si>
     <t>TC137_Purchase_Advertisment_With_No_Approval_And_Verify_The_Ad_Is_Displayed_In_Global_Members_Page</t>
   </si>
   <si>
     <t>TC138_Purchase_Advertisment_With_No_Approval_And_Verify_The_Ad_Is_Displayed_In_Home_Page</t>
   </si>
   <si>
-    <t>\src\test\resources\testImages\HomePageAdImageToVerify.PNG</t>
-  </si>
-  <si>
     <t>TC140_Reject_Advertisement_By_CA</t>
   </si>
   <si>
@@ -2788,6 +2782,12 @@
   </si>
   <si>
     <t>promoCode3</t>
+  </si>
+  <si>
+    <t>\src\test\resources\testImages\HomePageAd.png</t>
+  </si>
+  <si>
+    <t>\src\test\resources\testImages\communityAdImage.PNG</t>
   </si>
 </sst>
 </file>
@@ -5088,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H966" workbookViewId="0">
-      <selection activeCell="O968" sqref="O968"/>
+    <sheetView tabSelected="1" topLeftCell="E780" workbookViewId="0">
+      <selection activeCell="L781" sqref="L781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6415,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H115" t="s">
         <v>271</v>
@@ -7078,22 +7078,22 @@
         <v>10</v>
       </c>
       <c r="G167" t="s">
+        <v>774</v>
+      </c>
+      <c r="H167" t="s">
+        <v>775</v>
+      </c>
+      <c r="I167" t="s">
         <v>776</v>
       </c>
-      <c r="H167" t="s">
+      <c r="J167" t="s">
         <v>777</v>
       </c>
-      <c r="I167" t="s">
+      <c r="K167" t="s">
         <v>778</v>
       </c>
-      <c r="J167" t="s">
-        <v>779</v>
-      </c>
-      <c r="K167" t="s">
-        <v>780</v>
-      </c>
       <c r="L167" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -9253,7 +9253,7 @@
         <v>4</v>
       </c>
       <c r="D697" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E697" t="s">
         <v>16</v>
@@ -9301,7 +9301,7 @@
         <v>4</v>
       </c>
       <c r="D704" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E704" t="s">
         <v>16</v>
@@ -10163,7 +10163,7 @@
         <v>495</v>
       </c>
       <c r="L781" t="s">
-        <v>769</v>
+        <v>819</v>
       </c>
     </row>
     <row r="782" spans="1:15">
@@ -10468,7 +10468,7 @@
         <v>10</v>
       </c>
       <c r="F798" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H798" s="3"/>
       <c r="L798" s="3"/>
@@ -10742,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="B817" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C817" t="s">
         <v>4</v>
@@ -10775,7 +10775,7 @@
         <v>495</v>
       </c>
       <c r="M817" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="821" spans="1:48">
@@ -10829,7 +10829,7 @@
         <v>2</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C823" s="5" t="s">
         <v>4</v>
@@ -10859,10 +10859,10 @@
         <v>495</v>
       </c>
       <c r="L823" t="s">
-        <v>772</v>
+        <v>818</v>
       </c>
       <c r="M823" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="826" spans="1:48">
@@ -10898,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="B828" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C828" s="5" t="s">
         <v>4</v>
@@ -11127,7 +11127,7 @@
         <v>556</v>
       </c>
       <c r="T833" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U833" t="s">
         <v>557</v>
@@ -11154,7 +11154,7 @@
         <v>562</v>
       </c>
       <c r="AC833" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AD833" s="3" t="s">
         <v>564</v>
@@ -11172,7 +11172,7 @@
         <v>240</v>
       </c>
       <c r="AI833" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AJ833" s="3" t="s">
         <v>618</v>
@@ -11202,7 +11202,7 @@
         <v>568</v>
       </c>
       <c r="AS833" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AT833" t="s">
         <v>569</v>
@@ -11419,7 +11419,7 @@
         <v>556</v>
       </c>
       <c r="T838" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U838" t="s">
         <v>557</v>
@@ -11446,7 +11446,7 @@
         <v>562</v>
       </c>
       <c r="AC838" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AD838" s="3" t="s">
         <v>564</v>
@@ -11464,7 +11464,7 @@
         <v>240</v>
       </c>
       <c r="AI838" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AJ838" s="3" t="s">
         <v>618</v>
@@ -11494,7 +11494,7 @@
         <v>568</v>
       </c>
       <c r="AS838" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AT838" t="s">
         <v>569</v>
@@ -11716,7 +11716,7 @@
         <v>556</v>
       </c>
       <c r="T846" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U846" t="s">
         <v>557</v>
@@ -11743,7 +11743,7 @@
         <v>562</v>
       </c>
       <c r="AC846" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AD846" s="3" t="s">
         <v>564</v>
@@ -11761,7 +11761,7 @@
         <v>240</v>
       </c>
       <c r="AI846" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AJ846" s="3" t="s">
         <v>618</v>
@@ -11791,7 +11791,7 @@
         <v>568</v>
       </c>
       <c r="AS846" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AT846" t="s">
         <v>569</v>
@@ -12112,7 +12112,7 @@
         <v>262</v>
       </c>
       <c r="L862" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M862" t="s">
         <v>16</v>
@@ -12422,7 +12422,7 @@
         <v>396</v>
       </c>
       <c r="H885" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I885" t="s">
         <v>405</v>
@@ -12485,7 +12485,7 @@
         <v>396</v>
       </c>
       <c r="H890" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I890" t="s">
         <v>405</v>
@@ -12659,7 +12659,7 @@
         <v>261</v>
       </c>
       <c r="H895" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I895" t="s">
         <v>271</v>
@@ -12737,7 +12737,7 @@
         <v>394</v>
       </c>
       <c r="AH895" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AI895" t="s">
         <v>405</v>
@@ -12939,7 +12939,7 @@
         <v>261</v>
       </c>
       <c r="H902" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I902" t="s">
         <v>271</v>
@@ -13017,7 +13017,7 @@
         <v>394</v>
       </c>
       <c r="AH902" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AI902" t="s">
         <v>405</v>
@@ -14297,7 +14297,7 @@
         <v>740</v>
       </c>
       <c r="I987" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J987" t="s">
         <v>723</v>
@@ -14371,7 +14371,7 @@
         <v>749</v>
       </c>
       <c r="I988" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J988" t="s">
         <v>737</v>
@@ -14852,7 +14852,7 @@
         <v>429</v>
       </c>
       <c r="C1017" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D1017" t="s">
         <v>16</v>
@@ -15300,7 +15300,7 @@
         <v>67</v>
       </c>
       <c r="G1053" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H1053" t="s">
         <v>275</v>
@@ -15311,7 +15311,7 @@
         <v>2</v>
       </c>
       <c r="B1054" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C1054" t="s">
         <v>4</v>
@@ -15326,7 +15326,7 @@
         <v>649</v>
       </c>
       <c r="G1054" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H1054" t="s">
         <v>275</v>
@@ -15357,7 +15357,7 @@
         <v>67</v>
       </c>
       <c r="G1057" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H1057" t="s">
         <v>275</v>
@@ -15368,7 +15368,7 @@
         <v>2</v>
       </c>
       <c r="B1058" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C1058" t="s">
         <v>4</v>
@@ -15383,7 +15383,7 @@
         <v>649</v>
       </c>
       <c r="G1058" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H1058" t="s">
         <v>275</v>
@@ -15417,13 +15417,13 @@
         <v>35</v>
       </c>
       <c r="H1061" t="s">
+        <v>783</v>
+      </c>
+      <c r="I1061" t="s">
+        <v>784</v>
+      </c>
+      <c r="J1061" t="s">
         <v>785</v>
-      </c>
-      <c r="I1061" t="s">
-        <v>786</v>
-      </c>
-      <c r="J1061" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="1062" spans="1:10">
@@ -15431,7 +15431,7 @@
         <v>2</v>
       </c>
       <c r="B1062" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C1062" t="s">
         <v>4</v>
@@ -15446,16 +15446,16 @@
         <v>649</v>
       </c>
       <c r="G1062" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H1062" t="s">
         <v>275</v>
       </c>
       <c r="I1062" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J1062" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1064" spans="1:10">
@@ -15491,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="B1066" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C1066" t="s">
         <v>4</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="G28" s="21" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>367</v>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="G29" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H29" t="s">
         <v>368</v>
@@ -18222,7 +18222,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="G30" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H30" t="s">
         <v>369</v>
@@ -18230,7 +18230,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="G31" s="22" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H31" t="s">
         <v>296</v>
@@ -18238,7 +18238,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="G32" s="23" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H32" t="s">
         <v>294</v>
@@ -18246,7 +18246,7 @@
     </row>
     <row r="33" spans="7:8" ht="15.75" thickBot="1">
       <c r="G33" s="22" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H33" t="s">
         <v>385</v>
@@ -18254,7 +18254,7 @@
     </row>
     <row r="34" spans="7:8" ht="15.75" thickBot="1">
       <c r="G34" s="23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>292</v>
@@ -18262,7 +18262,7 @@
     </row>
     <row r="35" spans="7:8" ht="15.75" thickBot="1">
       <c r="G35" s="22" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>365</v>
@@ -18270,7 +18270,7 @@
     </row>
     <row r="36" spans="7:8" ht="15.75" thickBot="1">
       <c r="G36" s="23" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H36" t="s">
         <v>366</v>
@@ -18278,7 +18278,7 @@
     </row>
     <row r="37" spans="7:8" ht="15.75" thickBot="1">
       <c r="G37" s="22" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>356</v>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="38" spans="7:8" ht="15.75" thickBot="1">
       <c r="G38" s="22" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>355</v>
@@ -18294,7 +18294,7 @@
     </row>
     <row r="39" spans="7:8" ht="15.75" thickBot="1">
       <c r="G39" s="22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>651</v>
@@ -18302,7 +18302,7 @@
     </row>
     <row r="40" spans="7:8" ht="15.75" thickBot="1">
       <c r="G40" s="23" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>766</v>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="41" spans="7:8" ht="15.75" thickBot="1">
       <c r="G41" s="22" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>297</v>
@@ -18318,7 +18318,7 @@
     </row>
     <row r="42" spans="7:8" ht="15.75" thickBot="1">
       <c r="G42" s="23" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>435</v>
@@ -18334,7 +18334,7 @@
     </row>
     <row r="44" spans="7:8" ht="15.75" thickBot="1">
       <c r="G44" s="23" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>293</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="45" spans="7:8" ht="15.75" thickBot="1">
       <c r="G45" s="23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>206</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="46" spans="7:8" ht="15.75" thickBot="1">
       <c r="G46" s="22" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>262</v>

--- a/target/test-classes/testdata/master.xlsx
+++ b/target/test-classes/testdata/master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4175" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="835">
   <si>
     <t>TestCases</t>
   </si>
@@ -2788,6 +2788,51 @@
   </si>
   <si>
     <t>\src\test\resources\testImages\communityAdImage.PNG</t>
+  </si>
+  <si>
+    <t>TC200</t>
+  </si>
+  <si>
+    <t>TC201</t>
+  </si>
+  <si>
+    <t>TC202</t>
+  </si>
+  <si>
+    <t>TC203</t>
+  </si>
+  <si>
+    <t>TC204</t>
+  </si>
+  <si>
+    <t>TC201_CommunityTagMemberInPost</t>
+  </si>
+  <si>
+    <t>TC202_CommunityTagMemberInComment</t>
+  </si>
+  <si>
+    <t>TC203_GroupTagMemberInPost</t>
+  </si>
+  <si>
+    <t>TC204_GroupTagMemberInComment</t>
+  </si>
+  <si>
+    <t>TC199</t>
+  </si>
+  <si>
+    <t>TC205</t>
+  </si>
+  <si>
+    <t>TC206</t>
+  </si>
+  <si>
+    <t>Hi Nice to see you back ….. !!!!! @Curator</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>@Nancy Kemper</t>
   </si>
 </sst>
 </file>
@@ -3278,7 +3323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3286,10 +3331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201:B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5078,6 +5123,70 @@
         <v>2</v>
       </c>
     </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>829</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>820</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>821</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>822</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>823</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>824</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>830</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>831</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5086,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV1066"/>
+  <dimension ref="A1:AV1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E780" workbookViewId="0">
-      <selection activeCell="L781" sqref="L781"/>
+    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
+      <selection activeCell="I1079" sqref="I1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15507,6 +15616,234 @@
       </c>
       <c r="G1066" t="s">
         <v>643</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:10">
+      <c r="A1069" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:10">
+      <c r="A1070" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1070" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10">
+      <c r="A1071" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>825</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9">
+      <c r="A1073" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9">
+      <c r="A1074" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1074" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9">
+      <c r="A1075" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9">
+      <c r="A1077" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9">
+      <c r="A1078" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1078" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9">
+      <c r="A1079" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1079" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9">
+      <c r="A1082" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9">
+      <c r="A1083" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1083" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9">
+      <c r="A1084" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
